--- a/investments_15.xlsx
+++ b/investments_15.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinaandrijevic/PhD/covid_recovery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marinaandrijevic/PhD/covid_recovery/covid_recovery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B318F0-10DA-0D47-9FC1-C8ECBB303E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2355958E-3336-9546-AFA4-2F9B440579CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="660" windowWidth="17960" windowHeight="16100" activeTab="1" xr2:uid="{716DDD2E-C0E0-8B40-9F7B-08130D7160B9}"/>
+    <workbookView xWindow="8880" yWindow="2320" windowWidth="17960" windowHeight="16100" activeTab="1" xr2:uid="{716DDD2E-C0E0-8B40-9F7B-08130D7160B9}"/>
   </bookViews>
   <sheets>
     <sheet name="energy.invest" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>fossil.fuels</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>World</t>
   </si>
 </sst>
 </file>
@@ -1066,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1CDBF2-2F19-6047-997D-515325463B2C}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1490,14 +1487,6 @@
         <v>15.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22">
-        <v>8000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
